--- a/earlywarning-pom/earlywarning-config/src/baf-instances/37_Inst_Variable_ALEX.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/37_Inst_Variable_ALEX.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HD 500 Gb/Documenti Michele/Lavoro/configurazione ALEX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="460" windowWidth="15960" windowHeight="16600" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="16035" yWindow="465" windowWidth="15960" windowHeight="16605" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -923,7 +923,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -969,12 +969,15 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Variable" xfId="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1067,10 +1070,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1026810</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>931560</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>250825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1125,10 +1128,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1026810</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>931560</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>250825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1183,10 +1186,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1026810</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>931560</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>250825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1241,10 +1244,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1026810</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>931560</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>250825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1299,10 +1302,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1026810</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>931560</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>250825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1998,28 +2001,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J52"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="6" width="27.5" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2036,7 +2039,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -2815,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>11</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>11</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>11</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>11</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>11</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>11</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>11</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>11</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>11</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>11</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>11</v>
       </c>
@@ -3868,11 +3871,11 @@
       <c r="I46" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>12</v>
+      <c r="J46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L46" s="4" t="b">
         <v>0</v>
@@ -3881,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>11</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>11</v>
       </c>
@@ -3963,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>11</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>11</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>11</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>11</v>
       </c>
@@ -4139,21 +4142,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -4163,7 +4166,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4278,14 +4281,14 @@
       <c r="C8" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="17" t="s">
         <v>141</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4336,7 +4339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4380,14 +4383,14 @@
       <c r="C14" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="17" t="s">
         <v>147</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4397,14 +4400,14 @@
       <c r="C15" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="17" t="s">
         <v>148</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -4414,14 +4417,14 @@
       <c r="C16" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="17" t="s">
         <v>149</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4455,7 +4458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4465,14 +4468,14 @@
       <c r="C19" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -4533,14 +4536,14 @@
       <c r="C23" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -4550,14 +4553,14 @@
       <c r="C24" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -4567,14 +4570,14 @@
       <c r="C25" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="17" t="s">
         <v>158</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -4584,14 +4587,14 @@
       <c r="C26" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -4601,14 +4604,14 @@
       <c r="C27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="17" t="s">
         <v>160</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4618,14 +4621,14 @@
       <c r="C28" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="17" t="s">
         <v>161</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -4635,14 +4638,14 @@
       <c r="C29" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="17" t="s">
         <v>162</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -4652,14 +4655,14 @@
       <c r="C30" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="17" t="s">
         <v>163</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -4669,14 +4672,14 @@
       <c r="C31" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="17" t="s">
         <v>164</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -4693,7 +4696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -4710,7 +4713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -4727,7 +4730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -4771,14 +4774,14 @@
       <c r="C37" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="17" t="s">
         <v>170</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -4788,14 +4791,14 @@
       <c r="C38" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="17" t="s">
         <v>171</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -4805,14 +4808,14 @@
       <c r="C39" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="17" t="s">
         <v>172</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -4822,14 +4825,14 @@
       <c r="C40" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="17" t="s">
         <v>173</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -4839,14 +4842,14 @@
       <c r="C41" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="17" t="s">
         <v>174</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -4856,14 +4859,14 @@
       <c r="C42" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -4880,7 +4883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -4914,7 +4917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -4928,10 +4931,10 @@
         <v>179</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -4999,7 +5002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -5050,9 +5053,9 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5110,7 +5113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -5188,7 +5191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5298,7 +5301,7 @@
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -5325,7 +5328,7 @@
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -5352,7 +5355,7 @@
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -5379,7 +5382,7 @@
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5408,7 +5411,7 @@
       </c>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -5435,7 +5438,7 @@
       </c>
       <c r="K16"/>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/37_Inst_Variable_ALEX.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/37_Inst_Variable_ALEX.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,10 +17,10 @@
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'r Variable_DataType'!$F$6:$F$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'r Variable_DataType'!$F$7:$F$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$53</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="251">
   <si>
     <t>Variable</t>
   </si>
@@ -791,18 +791,40 @@
   </si>
   <si>
     <t>ALEX_SEGMENT_STRING</t>
+  </si>
+  <si>
+    <t>EXPOSURE</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>ALEX_EXPOSURE</t>
+  </si>
+  <si>
+    <t>IsCustomField</t>
+  </si>
+  <si>
+    <t>ALEX_EXPOSURE_REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -908,7 +930,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -916,61 +938,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1073,11 +1119,17 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>931560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1131,11 +1183,17 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>931560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1189,11 +1247,17 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>931560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1247,11 +1311,17 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>931560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1305,11 +1375,17 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>931560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1367,7 +1443,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1411,11 +1493,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>190035</xdr:rowOff>
+      <xdr:rowOff>180510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1469,11 +1557,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>190035</xdr:rowOff>
+      <xdr:rowOff>180510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1527,11 +1621,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>190035</xdr:rowOff>
+      <xdr:rowOff>180510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1585,11 +1685,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>190035</xdr:rowOff>
+      <xdr:rowOff>180510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1643,11 +1749,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>190035</xdr:rowOff>
+      <xdr:rowOff>180510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1705,7 +1817,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1999,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,7 +2140,7 @@
     <col min="13" max="13" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2038,8 +2156,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2079,8 +2198,11 @@
       <c r="M2" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -2120,8 +2242,11 @@
       <c r="M3" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2161,8 +2286,11 @@
       <c r="M4" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -2202,110 +2330,119 @@
       <c r="M5" s="14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="N5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="20">
+        <v>4</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G7" s="16">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="K7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>5</v>
-      </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" s="10">
-        <v>6</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
@@ -2325,110 +2462,119 @@
       <c r="M8" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="10">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>7</v>
       </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="H10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="K10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G11" s="10">
         <v>8</v>
-      </c>
-      <c r="H10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="10">
-        <v>9</v>
       </c>
       <c r="H11" s="4" t="b">
         <v>0</v>
@@ -2448,28 +2594,31 @@
       <c r="M11" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="G12" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="4" t="b">
         <v>0</v>
@@ -2489,28 +2638,31 @@
       <c r="M12" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="16">
-        <v>11</v>
+        <v>206</v>
+      </c>
+      <c r="G13" s="10">
+        <v>10</v>
       </c>
       <c r="H13" s="4" t="b">
         <v>0</v>
@@ -2530,28 +2682,31 @@
       <c r="M13" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="10">
-        <v>12</v>
+        <v>207</v>
+      </c>
+      <c r="G14" s="16">
+        <v>11</v>
       </c>
       <c r="H14" s="4" t="b">
         <v>0</v>
@@ -2571,28 +2726,31 @@
       <c r="M14" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G15" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4" t="b">
         <v>0</v>
@@ -2612,28 +2770,31 @@
       <c r="M15" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="G16" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="4" t="b">
         <v>0</v>
@@ -2653,69 +2814,75 @@
       <c r="M16" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="10">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="10">
         <v>15</v>
-      </c>
-      <c r="H17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="10">
-        <v>16</v>
       </c>
       <c r="H18" s="4" t="b">
         <v>0</v>
@@ -2735,69 +2902,75 @@
       <c r="M18" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N18" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="10">
+        <v>16</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>17</v>
-      </c>
-      <c r="H19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="16">
-        <v>18</v>
       </c>
       <c r="H20" s="4" t="b">
         <v>0</v>
@@ -2817,69 +2990,75 @@
       <c r="M20" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N20" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" s="16">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>19</v>
-      </c>
-      <c r="H21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="10">
-        <v>20</v>
       </c>
       <c r="H22" s="4" t="b">
         <v>0</v>
@@ -2899,28 +3078,31 @@
       <c r="M22" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N22" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4" t="b">
         <v>0</v>
@@ -2940,28 +3122,31 @@
       <c r="M23" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N23" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="G24" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24" s="4" t="b">
         <v>0</v>
@@ -2981,28 +3166,31 @@
       <c r="M24" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N24" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="G25" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" s="4" t="b">
         <v>0</v>
@@ -3022,28 +3210,31 @@
       <c r="M25" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N25" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="G26" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H26" s="4" t="b">
         <v>0</v>
@@ -3063,28 +3254,31 @@
       <c r="M26" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N26" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="16">
-        <v>25</v>
+        <v>213</v>
+      </c>
+      <c r="G27" s="10">
+        <v>24</v>
       </c>
       <c r="H27" s="4" t="b">
         <v>0</v>
@@ -3104,28 +3298,31 @@
       <c r="M27" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N27" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="10">
-        <v>26</v>
+        <v>126</v>
+      </c>
+      <c r="G28" s="16">
+        <v>25</v>
       </c>
       <c r="H28" s="4" t="b">
         <v>0</v>
@@ -3145,28 +3342,31 @@
       <c r="M28" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N28" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="4" t="b">
         <v>0</v>
@@ -3186,28 +3386,31 @@
       <c r="M29" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N29" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="G30" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="4" t="b">
         <v>0</v>
@@ -3227,28 +3430,31 @@
       <c r="M30" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N30" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="G31" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H31" s="4" t="b">
         <v>0</v>
@@ -3268,28 +3474,31 @@
       <c r="M31" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N31" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" s="4" t="b">
         <v>0</v>
@@ -3309,28 +3518,31 @@
       <c r="M32" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N32" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="4" t="b">
         <v>0</v>
@@ -3350,28 +3562,31 @@
       <c r="M33" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N33" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G34" s="16">
-        <v>32</v>
+        <v>131</v>
+      </c>
+      <c r="G34" s="10">
+        <v>31</v>
       </c>
       <c r="H34" s="4" t="b">
         <v>0</v>
@@ -3391,28 +3606,31 @@
       <c r="M34" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N34" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" s="10">
-        <v>33</v>
+        <v>215</v>
+      </c>
+      <c r="G35" s="16">
+        <v>32</v>
       </c>
       <c r="H35" s="4" t="b">
         <v>0</v>
@@ -3432,28 +3650,31 @@
       <c r="M35" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N35" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G36" s="10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" s="4" t="b">
         <v>0</v>
@@ -3473,28 +3694,31 @@
       <c r="M36" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N36" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="G37" s="10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H37" s="4" t="b">
         <v>0</v>
@@ -3514,28 +3738,31 @@
       <c r="M37" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N37" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G38" s="10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38" s="4" t="b">
         <v>0</v>
@@ -3555,28 +3782,31 @@
       <c r="M38" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N38" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G39" s="10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" s="4" t="b">
         <v>0</v>
@@ -3596,28 +3826,31 @@
       <c r="M39" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N39" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G40" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" s="4" t="b">
         <v>0</v>
@@ -3637,28 +3870,31 @@
       <c r="M40" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N40" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="16">
-        <v>39</v>
+        <v>219</v>
+      </c>
+      <c r="G41" s="10">
+        <v>38</v>
       </c>
       <c r="H41" s="4" t="b">
         <v>0</v>
@@ -3678,28 +3914,31 @@
       <c r="M41" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N41" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G42" s="10">
-        <v>40</v>
+        <v>134</v>
+      </c>
+      <c r="G42" s="16">
+        <v>39</v>
       </c>
       <c r="H42" s="4" t="b">
         <v>0</v>
@@ -3719,28 +3958,31 @@
       <c r="M42" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N42" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="G43" s="10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43" s="4" t="b">
         <v>0</v>
@@ -3760,28 +4002,31 @@
       <c r="M43" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N43" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G44" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44" s="4" t="b">
         <v>0</v>
@@ -3801,28 +4046,31 @@
       <c r="M44" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N44" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G45" s="10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45" s="4" t="b">
         <v>0</v>
@@ -3842,69 +4090,75 @@
       <c r="M45" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="10">
+        <v>43</v>
+      </c>
+      <c r="H46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D47" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>44</v>
-      </c>
-      <c r="H46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="10">
-        <v>45</v>
       </c>
       <c r="H47" s="4" t="b">
         <v>0</v>
@@ -3924,28 +4178,31 @@
       <c r="M47" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N47" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" s="16">
-        <v>46</v>
+        <v>138</v>
+      </c>
+      <c r="G48" s="10">
+        <v>45</v>
       </c>
       <c r="H48" s="4" t="b">
         <v>0</v>
@@ -3965,28 +4222,31 @@
       <c r="M48" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N48" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="10">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="G49" s="16">
+        <v>46</v>
       </c>
       <c r="H49" s="4" t="b">
         <v>0</v>
@@ -4006,28 +4266,31 @@
       <c r="M49" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N49" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H50" s="4" t="b">
         <v>0</v>
@@ -4047,28 +4310,31 @@
       <c r="M50" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="N50" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H51" s="4" t="b">
         <v>0</v>
@@ -4088,28 +4354,31 @@
       <c r="M51" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N51" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G52" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H52" s="4" t="b">
         <v>0</v>
@@ -4129,9 +4398,56 @@
       <c r="M52" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="N52" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="10">
+        <v>50</v>
+      </c>
+      <c r="H53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M52"/>
+  <autoFilter ref="A2:M53"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4140,11 +4456,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,14 +4557,14 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>139</v>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" t="s">
+        <v>248</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
@@ -4259,32 +4575,32 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4293,16 +4609,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4310,16 +4626,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4327,13 +4643,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -4344,13 +4660,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -4361,13 +4677,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -4378,13 +4694,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -4395,13 +4711,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -4412,13 +4728,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -4429,16 +4745,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4446,13 +4762,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -4463,16 +4779,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4480,13 +4796,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
@@ -4497,16 +4813,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4514,13 +4830,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4531,13 +4847,13 @@
         <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -4548,13 +4864,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -4565,13 +4881,13 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -4582,13 +4898,13 @@
         <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -4599,13 +4915,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -4616,13 +4932,13 @@
         <v>11</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -4633,13 +4949,13 @@
         <v>11</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -4650,13 +4966,13 @@
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -4667,13 +4983,13 @@
         <v>11</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -4684,13 +5000,13 @@
         <v>11</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -4701,13 +5017,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -4718,13 +5034,13 @@
         <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -4735,13 +5051,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -4752,13 +5068,13 @@
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -4769,13 +5085,13 @@
         <v>11</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -4786,13 +5102,13 @@
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -4803,13 +5119,13 @@
         <v>11</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -4820,13 +5136,13 @@
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -4837,13 +5153,13 @@
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -4854,13 +5170,13 @@
         <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -4871,13 +5187,13 @@
         <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -4888,13 +5204,13 @@
         <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -4905,13 +5221,13 @@
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -4922,16 +5238,16 @@
         <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4939,13 +5255,13 @@
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
@@ -4956,13 +5272,13 @@
         <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F48" t="s">
         <v>23</v>
@@ -4973,13 +5289,13 @@
         <v>11</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F49" t="s">
         <v>23</v>
@@ -4990,13 +5306,13 @@
         <v>11</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F50" t="s">
         <v>23</v>
@@ -5007,13 +5323,13 @@
         <v>11</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F51" t="s">
         <v>23</v>
@@ -5024,20 +5340,37 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F52" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="F6:F52"/>
+  <autoFilter ref="F7:F53"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
